--- a/add-products/Product.xlsx
+++ b/add-products/Product.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LE BICH VY\OneDrive\Máy tính\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MyPC\Desktop\DAVISY-PRO1014\add-products\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15888" windowHeight="8724"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15885" windowHeight="8730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,9 +44,6 @@
     <t>SP20</t>
   </si>
   <si>
-    <t>SP21</t>
-  </si>
-  <si>
     <t>San pham 21</t>
   </si>
   <si>
@@ -87,6 +84,9 @@
   </si>
   <si>
     <t>máy tính bảng</t>
+  </si>
+  <si>
+    <t>SP01</t>
   </si>
 </sst>
 </file>
@@ -97,7 +97,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -407,45 +407,45 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" customWidth="1"/>
-    <col min="2" max="4" width="15.77734375" customWidth="1"/>
-    <col min="7" max="7" width="18.109375" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="4" width="15.75" customWidth="1"/>
+    <col min="7" max="7" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -463,12 +463,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -486,15 +486,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -509,12 +509,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>

--- a/add-products/Product.xlsx
+++ b/add-products/Product.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MyPC\Desktop\DAVISY-PRO1014\add-products\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MyPC\Desktop\DAVISY-PRO1041\add-products\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>khong co mota</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>SP01</t>
+  </si>
+  <si>
+    <t>SỐ LƯỢNG</t>
   </si>
 </sst>
 </file>
@@ -404,20 +407,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="4" width="15.75" customWidth="1"/>
-    <col min="7" max="7" width="18.125" customWidth="1"/>
+    <col min="2" max="5" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -431,16 +434,19 @@
         <v>15</v>
       </c>
       <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -454,16 +460,19 @@
         <v>3</v>
       </c>
       <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
         <v>300000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>500000</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -477,16 +486,19 @@
         <v>4</v>
       </c>
       <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
         <v>400000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>600000</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -500,16 +512,19 @@
         <v>3</v>
       </c>
       <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
         <v>300000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>500000</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -523,12 +538,15 @@
         <v>3</v>
       </c>
       <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5">
         <v>300000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>500000</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>0</v>
       </c>
     </row>
